--- a/Evaluation/eval001/sub0688/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0688/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.912621359223301</v>
+        <v>0.92</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9215686274509804</v>
+        <v>0.9154228855721394</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9108910891089109</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9162561576354681</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9209571442581151</v>
+        <v>0.9158823529411765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9207843137254902</v>
+        <v>0.9158395216038038</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9209571442581151</v>
+        <v>0.9158823529411765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9207843137254902</v>
+        <v>0.9158395216038038</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
